--- a/outputs-r202/f__Baltobacteraceae.xlsx
+++ b/outputs-r202/f__Baltobacteraceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,6 +555,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -633,6 +638,11 @@
           <t>g__Lustribacter</t>
         </is>
       </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>g__Lustribacter</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -711,6 +721,11 @@
           <t>g__Lustribacter</t>
         </is>
       </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>g__Lustribacter</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -787,6 +802,11 @@
       <c r="X4" t="inlineStr">
         <is>
           <t>g__Zemynaea</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>g__Zemynaea(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-r202/f__Baltobacteraceae.xlsx
+++ b/outputs-r202/f__Baltobacteraceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,74 +564,74 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG284.fasta</t>
+          <t>RUG369.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.222460759841925e-14</v>
+        <v>2.220773298283355e-14</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01974694984844813</v>
+        <v>2.220773298283355e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>2.222460759841925e-14</v>
+        <v>2.220773298283355e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>2.222460759841925e-14</v>
+        <v>2.220773298283355e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>2.222460759841925e-14</v>
+        <v>2.220773298283355e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>2.222460759841925e-14</v>
+        <v>2.220773298283355e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>2.222460759841925e-14</v>
+        <v>2.220773298283355e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>2.222460759841925e-14</v>
+        <v>2.220773298283355e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03106275303717017</v>
+        <v>0.03219653897871631</v>
       </c>
       <c r="K2" t="n">
-        <v>2.222460759841925e-14</v>
+        <v>0.0196358164814179</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9096963974171299</v>
+        <v>0.9481676445394661</v>
       </c>
       <c r="M2" t="n">
-        <v>2.222460759841925e-14</v>
+        <v>2.220773298283355e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>2.222460759841925e-14</v>
+        <v>2.220773298283355e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01974694984844811</v>
+        <v>2.220773298283355e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>2.222460759841925e-14</v>
+        <v>2.220773298283355e-14</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.222460759841925e-14</v>
+        <v>2.220773298283355e-14</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01974694984844811</v>
+        <v>2.220773298283355e-14</v>
       </c>
       <c r="S2" t="n">
-        <v>2.222460759841925e-14</v>
+        <v>2.220773298283355e-14</v>
       </c>
       <c r="T2" t="n">
-        <v>2.222460759841925e-14</v>
+        <v>2.220773298283355e-14</v>
       </c>
       <c r="U2" t="n">
-        <v>2.222460759841925e-14</v>
+        <v>2.220773298283355e-14</v>
       </c>
       <c r="V2" t="n">
-        <v>2.222460759841925e-14</v>
+        <v>2.220773298283355e-14</v>
       </c>
       <c r="W2" t="n">
-        <v>0.9096963974171299</v>
+        <v>0.9481676445394661</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -641,172 +641,6 @@
       <c r="Y2" t="inlineStr">
         <is>
           <t>g__Lustribacter</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>RUG369.fasta</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2.220773298283344e-14</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.220773298283344e-14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.220773298283344e-14</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2.220773298283344e-14</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.220773298283344e-14</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.220773298283344e-14</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.220773298283344e-14</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.220773298283344e-14</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.03219653897856153</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.01963581648131347</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.9481676445397252</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2.220773298283344e-14</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.220773298283344e-14</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2.220773298283344e-14</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.220773298283344e-14</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.220773298283344e-14</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.220773298283344e-14</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.220773298283344e-14</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.220773298283344e-14</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.220773298283344e-14</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.220773298283344e-14</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.9481676445397252</v>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>g__Lustribacter</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>g__Lustribacter</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>RUG432.fasta</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>8.373370251599255e-13</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3214013499334039</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.373370251599259e-13</v>
-      </c>
-      <c r="E4" t="n">
-        <v>8.373370251599254e-13</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8.373370251599254e-13</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8.373370251599257e-13</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8.373370251599257e-13</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8.373370251599257e-13</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8.373370251599257e-13</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8.373370251599254e-13</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8.373370251599254e-13</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8.373370251599254e-13</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8.373370251599254e-13</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8.373370251599254e-13</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.3214013499334038</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>8.373370251599254e-13</v>
-      </c>
-      <c r="R4" t="n">
-        <v>8.373370251599254e-13</v>
-      </c>
-      <c r="S4" t="n">
-        <v>8.373370251599252e-13</v>
-      </c>
-      <c r="T4" t="n">
-        <v>8.373370251599245e-13</v>
-      </c>
-      <c r="U4" t="n">
-        <v>8.373370251599249e-13</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.3571973001181202</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.3571973001181202</v>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>g__Zemynaea</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>g__Zemynaea(reject)</t>
         </is>
       </c>
     </row>
